--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3144.2</v>
+        <v>3265.4</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>1971.9</v>
+        <v>1936.6</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>89.81</v>
+        <v>90.5</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>166.9</v>
+        <v>168.06</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>21.51</v>
+        <v>21.69</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D7" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E7" s="95" t="inlineStr">
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>24.1</v>
+        <v>24.76</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D8" s="95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E8" s="95" t="inlineStr">
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>58.55</v>
+        <v>58.35</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>87.19</v>
+        <v>85.95</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D10" s="95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E10" s="95" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>144.85</v>
+        <v>150.22</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>115.64</v>
+        <v>115.33</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>85.01000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>47.86</v>
+        <v>48.23</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>202.09</v>
+        <v>204.89</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>110.97</v>
+        <v>110.83</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>375.08</v>
+        <v>379.83</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>29.4</v>
+        <v>29.82</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>563.02</v>
+        <v>567</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D19" s="95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E19" s="95" t="inlineStr">
@@ -2882,7 +2882,7 @@
         <v>256.53</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>259.98</v>
+        <v>263.12</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI17"/>
+  <dimension ref="A1:CJ17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3891,6 +3891,11 @@
           <t>2025-08-10 17:48</t>
         </is>
       </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>2025-08-15 20:05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4038,6 +4043,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4470,6 +4480,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -4902,6 +4917,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5334,6 +5354,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -5766,6 +5791,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6198,6 +6228,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6630,6 +6665,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7062,6 +7102,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7494,6 +7539,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -7926,6 +7976,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8358,6 +8413,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -8790,6 +8850,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9222,6 +9287,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -9654,6 +9724,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10086,6 +10161,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -10516,6 +10596,11 @@
       <c r="CI17" t="inlineStr">
         <is>
           <t>B</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3265.4</v>
+        <v>3416.4</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>1936.6</v>
+        <v>2005.6</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>90.5</v>
+        <v>90.75</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>168.06</v>
+        <v>169.94</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>21.69</v>
+        <v>21.95</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>24.76</v>
+        <v>25.88</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>58.35</v>
+        <v>59.47</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>85.95</v>
+        <v>85.67</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>150.22</v>
+        <v>149.66</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>115.33</v>
+        <v>114.35</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>83.8</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>48.23</v>
+        <v>48.87</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>204.89</v>
+        <v>205.79</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>110.83</v>
+        <v>109.87</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>379.83</v>
+        <v>378.29</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D17" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E17" s="95" t="inlineStr">
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>29.82</v>
+        <v>30.42</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>567</v>
+        <v>571.23</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2882,7 +2882,7 @@
         <v>256.53</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>263.12</v>
+        <v>266</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ17"/>
+  <dimension ref="A1:CL17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3896,6 +3896,16 @@
           <t>2025-08-15 20:05</t>
         </is>
       </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:44</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4048,6 +4058,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4485,6 +4505,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -4922,6 +4952,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5359,6 +5399,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -5796,6 +5846,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6233,6 +6293,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6670,6 +6740,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7107,6 +7187,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7544,6 +7634,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -7981,6 +8081,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8418,6 +8528,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -8855,6 +8975,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9292,6 +9422,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -9729,6 +9869,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10166,6 +10316,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -10599,6 +10759,16 @@
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
         <is>
           <t>S</t>
         </is>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3416.4</v>
+        <v>3354</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>2005.6</v>
+        <v>2010</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>90.75</v>
+        <v>90.31</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>169.94</v>
+        <v>171.43</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>21.95</v>
+        <v>22.14</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>25.88</v>
+        <v>26.12</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>59.47</v>
+        <v>59.7</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>85.67</v>
+        <v>85</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>149.66</v>
+        <v>150.11</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>114.35</v>
+        <v>113.96</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>83.56999999999999</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>48.87</v>
+        <v>49.44</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>205.79</v>
+        <v>205.48</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>109.87</v>
+        <v>109.41</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>378.29</v>
+        <v>378.88</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>30.42</v>
+        <v>30.44</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>571.23</v>
+        <v>572.36</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D19" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" s="95" t="inlineStr">
@@ -2876,13 +2876,13 @@
         </is>
       </c>
       <c r="G19" s="59" t="n">
-        <v>798</v>
+        <v>1</v>
       </c>
       <c r="H19" s="60" t="n">
-        <v>256.53</v>
+        <v>263.37</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>266</v>
+        <v>266.48</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL17"/>
+  <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3906,6 +3906,21 @@
           <t>2025-08-18 10:18</t>
         </is>
       </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>2025-08-18 23:54</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>2025-08-19 23:47</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>2025-08-19 23:51</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4068,6 +4083,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4515,6 +4545,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -4962,6 +5007,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5409,6 +5469,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -5856,6 +5931,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6303,6 +6393,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6750,6 +6855,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7197,6 +7317,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7644,6 +7779,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8091,6 +8241,21 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8538,6 +8703,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -8985,6 +9165,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9432,6 +9627,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -9879,6 +10089,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10326,6 +10551,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -10771,6 +11011,21 @@
       <c r="CL17" t="inlineStr">
         <is>
           <t>S</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3354</v>
+        <v>3395.6</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>2010</v>
+        <v>2041.8</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>90.31</v>
+        <v>90.34</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>171.43</v>
+        <v>171.77</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>22.14</v>
+        <v>22.24</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>26.12</v>
+        <v>26.11</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>59.7</v>
+        <v>60.35</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>85</v>
+        <v>84.77</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>150.11</v>
+        <v>148.98</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>113.96</v>
+        <v>111.44</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>82.84999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>49.44</v>
+        <v>49.67</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>205.48</v>
+        <v>203.48</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>109.41</v>
+        <v>106.99</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>378.88</v>
+        <v>388.71</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>30.44</v>
+        <v>30.3</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>572.36</v>
+        <v>570.8</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2882,7 +2882,7 @@
         <v>263.37</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>266.48</v>
+        <v>267.07</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO17"/>
+  <dimension ref="A1:CQ17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3921,6 +3921,16 @@
           <t>2025-08-19 23:51</t>
         </is>
       </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:14</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4098,6 +4108,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4560,6 +4580,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -5022,6 +5052,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5484,6 +5524,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -5946,6 +5996,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6408,6 +6468,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6870,6 +6940,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7332,6 +7412,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7794,6 +7884,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8256,6 +8356,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CP11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8718,6 +8828,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -9180,6 +9300,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9642,6 +9772,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -10104,6 +10244,16 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10566,6 +10716,16 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CQ16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -11024,6 +11184,16 @@
         </is>
       </c>
       <c r="CO17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr">
         <is>
           <t>B</t>
         </is>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3395.6</v>
+        <v>3415</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>2041.8</v>
+        <v>2053.9</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>90.34</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>171.77</v>
+        <v>171.59</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D6" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E6" s="95" t="inlineStr">
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>22.24</v>
+        <v>22.15</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>26.11</v>
+        <v>26.05</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>60.35</v>
+        <v>59.62</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>84.77</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>148.98</v>
+        <v>151.12</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>111.44</v>
+        <v>114.41</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>82.69</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>49.67</v>
+        <v>49.19</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>203.48</v>
+        <v>200.89</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>106.99</v>
+        <v>110</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>388.71</v>
+        <v>386.97</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>30.3</v>
+        <v>30.05</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>570.8</v>
+        <v>565.88</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2876,13 +2876,13 @@
         </is>
       </c>
       <c r="G19" s="59" t="n">
-        <v>1</v>
+        <v>788</v>
       </c>
       <c r="H19" s="60" t="n">
-        <v>263.37</v>
+        <v>267.26</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>267.07</v>
+        <v>265.94</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ17"/>
+  <dimension ref="A1:CR17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3931,6 +3931,11 @@
           <t>2025-08-20 16:19</t>
         </is>
       </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4118,6 +4123,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4590,6 +4600,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -5062,6 +5077,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5534,6 +5554,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -6006,6 +6031,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6478,6 +6508,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6950,6 +6985,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7422,6 +7462,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7894,6 +7939,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8366,6 +8416,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8838,6 +8893,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -9310,6 +9370,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9782,6 +9847,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -10254,6 +10324,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10726,6 +10801,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -11194,6 +11274,11 @@
         </is>
       </c>
       <c r="CQ17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
         <is>
           <t>B</t>
         </is>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3415</v>
+        <v>3398.9</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>2053.9</v>
+        <v>2068.9</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>89.73999999999999</v>
+        <v>89.64</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>171.59</v>
+        <v>171.79</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>22.15</v>
+        <v>22.09</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>26.05</v>
+        <v>26.1</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>59.62</v>
+        <v>59.52</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>85.29000000000001</v>
+        <v>86.27</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>151.12</v>
+        <v>151.19</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>114.41</v>
+        <v>116.59</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>83.09999999999999</v>
+        <v>84.09</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>49.19</v>
+        <v>49.21</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>200.89</v>
+        <v>203.4</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>110</v>
+        <v>112.05</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>386.97</v>
+        <v>395.37</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>30.05</v>
+        <v>30.02</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>565.88</v>
+        <v>564.64</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2882,7 +2882,7 @@
         <v>267.26</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>265.94</v>
+        <v>266.32</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR17"/>
+  <dimension ref="A1:CU17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3936,6 +3936,21 @@
           <t>2025-08-22 11:12</t>
         </is>
       </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:48</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:54</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:58</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4128,6 +4143,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4605,6 +4635,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -5082,6 +5127,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5559,6 +5619,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -6036,6 +6111,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6513,6 +6603,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -6990,6 +7095,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7467,6 +7587,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -7944,6 +8079,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8421,6 +8571,21 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -8898,6 +9063,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -9375,6 +9555,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -9852,6 +10047,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -10329,6 +10539,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -10806,6 +11031,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -11279,6 +11519,21 @@
         </is>
       </c>
       <c r="CR17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
         <is>
           <t>B</t>
         </is>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -1193,7 +1193,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3308</v>
+        <v>3295.3</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1297,7 +1297,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>1973.2</v>
+        <v>1984.6</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1399,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>88.12</v>
+        <v>87.87</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1500,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>167.08</v>
+        <v>166.98</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D6" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E6" s="95" t="inlineStr">
@@ -1601,7 +1601,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>21.62</v>
+        <v>21.53</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1702,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>25.93</v>
+        <v>25.88</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1803,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>59.61</v>
+        <v>59.27</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1903,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>87.15000000000001</v>
+        <v>87.22</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D10" s="95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E10" s="95" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>147.3</v>
+        <v>147.42</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2104,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>117.29</v>
+        <v>117.36</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2196,7 +2196,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>84.83</v>
+        <v>85.02</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2296,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>47.75</v>
+        <v>47.56</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2400,7 +2400,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>202.84</v>
+        <v>203.29</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2493,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>112.85</v>
+        <v>112.78</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2589,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>387.23</v>
+        <v>386.77</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D17" s="95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E17" s="95" t="inlineStr">
@@ -2690,7 +2690,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>29.2</v>
+        <v>28.94</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2791,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>554.3</v>
+        <v>552.52</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2882,7 +2882,7 @@
         <v>267.26</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>262.14</v>
+        <v>261.81</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3434,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV17"/>
+  <dimension ref="A1:CW17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
@@ -3956,6 +3956,11 @@
           <t>2025-08-28 10:08</t>
         </is>
       </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>2025-08-28 18:26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4168,6 +4173,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4665,6 +4675,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -5162,6 +5177,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5659,6 +5679,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -6156,6 +6181,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6653,6 +6683,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -7150,6 +7185,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7647,6 +7687,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -8144,6 +8189,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8641,6 +8691,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -9138,6 +9193,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -9635,6 +9695,11 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -10132,6 +10197,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -10629,6 +10699,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -11126,6 +11201,11 @@
           <t>S</t>
         </is>
       </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -11619,6 +11699,11 @@
         </is>
       </c>
       <c r="CV17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
         <is>
           <t>B</t>
         </is>

--- a/INVESTMENT  - 24-Apr-2025.xlsx
+++ b/INVESTMENT  - 24-Apr-2025.xlsx
@@ -263,7 +263,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +563,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,10 +990,10 @@
   <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1017,8 +1018,8 @@
     <col width="13.44140625" customWidth="1" style="3" min="20" max="20"/>
     <col width="14.6640625" bestFit="1" customWidth="1" style="3" min="21" max="21"/>
     <col width="8.6640625" customWidth="1" style="3" min="22" max="25"/>
-    <col width="8.6640625" customWidth="1" style="17" min="26" max="70"/>
-    <col width="8.6640625" customWidth="1" style="17" min="71" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="17" min="26" max="72"/>
+    <col width="8.6640625" customWidth="1" style="17" min="73" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" customFormat="1" customHeight="1" s="7">
@@ -1193,7 +1194,7 @@
         <v>2648.28</v>
       </c>
       <c r="I2" s="67" t="n">
-        <v>3240.9</v>
+        <v>3702.3</v>
       </c>
       <c r="J2" s="48">
         <f>G2*H2</f>
@@ -1203,8 +1204,9 @@
         <f>G2*I2</f>
         <v/>
       </c>
-      <c r="L2" s="48" t="n">
-        <v>60000</v>
+      <c r="L2" s="48">
+        <f>IF(D2="B",M2,IF(D2="S",I2,IF(D2="B_N_Y",J2,0)))</f>
+        <v/>
       </c>
       <c r="M2" s="62" t="n">
         <v>60000</v>
@@ -1297,7 +1299,7 @@
         <v>2381.91</v>
       </c>
       <c r="I3" s="67" t="n">
-        <v>1980.3</v>
+        <v>1955.5</v>
       </c>
       <c r="J3" s="48">
         <f>G3*H3</f>
@@ -1399,7 +1401,7 @@
         <v>81.28</v>
       </c>
       <c r="I4" s="54" t="n">
-        <v>89.95999999999999</v>
+        <v>88.91</v>
       </c>
       <c r="J4" s="55">
         <f>G4*H4</f>
@@ -1500,7 +1502,7 @@
         <v>157.16</v>
       </c>
       <c r="I5" s="54" t="n">
-        <v>169.69</v>
+        <v>170.76</v>
       </c>
       <c r="J5" s="55">
         <f>G5*H5</f>
@@ -1601,7 +1603,7 @@
         <v>19.8</v>
       </c>
       <c r="I6" s="54" t="n">
-        <v>21.8</v>
+        <v>21.96</v>
       </c>
       <c r="J6" s="55">
         <f>G6*H6</f>
@@ -1702,7 +1704,7 @@
         <v>22.22</v>
       </c>
       <c r="I7" s="54" t="n">
-        <v>26.3</v>
+        <v>27.91</v>
       </c>
       <c r="J7" s="55">
         <f>G7*H7</f>
@@ -1803,7 +1805,7 @@
         <v>58.09</v>
       </c>
       <c r="I8" s="54" t="n">
-        <v>60.52</v>
+        <v>60.25</v>
       </c>
       <c r="J8" s="55">
         <f>G8*H8</f>
@@ -1903,7 +1905,7 @@
         <v>68.84999999999999</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>89.62</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="J9" s="59">
         <f>G9*H9</f>
@@ -1913,8 +1915,9 @@
         <f>G9*I9</f>
         <v/>
       </c>
-      <c r="L9" s="75" t="n">
-        <v>600000</v>
+      <c r="L9" s="75">
+        <f>IF(D9="B",M9,IF(D9="S",I9,IF(D9="B_N_Y",J9,0)))</f>
+        <v/>
       </c>
       <c r="M9" s="75" t="n">
         <v>600000</v>
@@ -1983,7 +1986,7 @@
       </c>
       <c r="D10" s="95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B_N_Y</t>
         </is>
       </c>
       <c r="E10" s="95" t="inlineStr">
@@ -2003,7 +2006,7 @@
         <v>142.45</v>
       </c>
       <c r="I10" s="54" t="n">
-        <v>146.5</v>
+        <v>148.5</v>
       </c>
       <c r="J10" s="55">
         <f>G10*H10</f>
@@ -2104,7 +2107,7 @@
         <v>95.88</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>122.95</v>
+        <v>125.8</v>
       </c>
       <c r="J11" s="59">
         <f>G11*H11</f>
@@ -2114,8 +2117,9 @@
         <f>G11*I11</f>
         <v/>
       </c>
-      <c r="L11" s="75" t="n">
-        <v>1000000</v>
+      <c r="L11" s="75">
+        <f>IF(D11="B",M11,IF(D11="S",I11,IF(D11="B_N_Y",J11,0)))</f>
+        <v/>
       </c>
       <c r="M11" s="75" t="n">
         <v>500000</v>
@@ -2196,7 +2200,7 @@
         <v>55.53</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>87.45</v>
+        <v>91.78</v>
       </c>
       <c r="J12" s="69">
         <f>G12*H12</f>
@@ -2296,7 +2300,7 @@
         <v>50.15</v>
       </c>
       <c r="I13" s="70" t="n">
-        <v>48.39</v>
+        <v>48.48</v>
       </c>
       <c r="J13" s="68">
         <f>G13*H13</f>
@@ -2306,8 +2310,9 @@
         <f>G13*I13</f>
         <v/>
       </c>
-      <c r="L13" s="62" t="n">
-        <v>115000</v>
+      <c r="L13" s="62">
+        <f>IF(D13="B",M13,IF(D13="S",I13,IF(D13="B_N_Y",J13,0)))</f>
+        <v/>
       </c>
       <c r="M13" s="62" t="n">
         <v>115000</v>
@@ -2400,7 +2405,7 @@
         <v>180.73</v>
       </c>
       <c r="I14" s="54" t="n">
-        <v>202.48</v>
+        <v>205.57</v>
       </c>
       <c r="J14" s="55">
         <f>G14*H14</f>
@@ -2493,7 +2498,7 @@
         <v>75.68000000000001</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>118.05</v>
+        <v>120.24</v>
       </c>
       <c r="J15" s="69">
         <f>G15*H15</f>
@@ -2589,7 +2594,7 @@
         <v>418.8</v>
       </c>
       <c r="I16" s="54" t="n">
-        <v>389.9</v>
+        <v>382.43</v>
       </c>
       <c r="J16" s="55">
         <f>G16*H16</f>
@@ -2690,7 +2695,7 @@
         <v>26.36</v>
       </c>
       <c r="I17" s="54" t="n">
-        <v>29.3</v>
+        <v>29.83</v>
       </c>
       <c r="J17" s="55">
         <f>G17*H17</f>
@@ -2791,7 +2796,7 @@
         <v>514.8200000000001</v>
       </c>
       <c r="I18" s="54" t="n">
-        <v>550.87</v>
+        <v>554.92</v>
       </c>
       <c r="J18" s="55">
         <f>G18*H18</f>
@@ -2882,7 +2887,7 @@
         <v>267.26</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>262.42</v>
+        <v>265.2</v>
       </c>
       <c r="J19" s="59">
         <f>G19*H19</f>
@@ -3328,6 +3333,36 @@
       <c r="G36" s="7" t="n"/>
       <c r="H36" s="24" t="n"/>
       <c r="I36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="H37" s="12" t="inlineStr">
+        <is>
+          <t>GOLD+SILVER</t>
+        </is>
+      </c>
+      <c r="I37" s="3">
+        <f>L9+L11+L12+L15</f>
+        <v/>
+      </c>
+      <c r="J37" s="105">
+        <f>I37/L32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="H38" s="12" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="I38" s="5">
+        <f>SUM(L2:L8)+L10+SUM(L13:L14)+SUM(L16:L19)</f>
+        <v/>
+      </c>
+      <c r="J38" s="105">
+        <f>I38/L32</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="K43" s="5" t="n"/>
@@ -3434,14 +3469,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ17"/>
+  <dimension ref="A1:DC17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col width="9.44140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="3" min="2" max="35"/>
@@ -3451,8 +3486,8 @@
     <col width="15.44140625" bestFit="1" customWidth="1" style="3" min="41" max="42"/>
     <col width="8.88671875" customWidth="1" style="3" min="43" max="77"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="3" min="78" max="78"/>
-    <col width="8.88671875" customWidth="1" style="3" min="79" max="79"/>
-    <col width="8.88671875" customWidth="1" style="3" min="80" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="79" max="81"/>
+    <col width="8.88671875" customWidth="1" style="3" min="82" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1">
@@ -3976,6 +4011,21 @@
           <t>2025-09-02 11:41</t>
         </is>
       </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:25</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>2025-09-07 14:35</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:50</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="46" t="inlineStr">
@@ -4208,6 +4258,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="inlineStr">
@@ -4725,6 +4790,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="inlineStr">
@@ -5242,6 +5322,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="inlineStr">
@@ -5759,6 +5854,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="inlineStr">
@@ -6276,6 +6386,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="inlineStr">
@@ -6793,6 +6918,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="inlineStr">
@@ -7310,6 +7450,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="59" t="inlineStr">
@@ -7827,6 +7982,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="inlineStr">
@@ -8344,6 +8514,21 @@
           <t>B</t>
         </is>
       </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="59" t="inlineStr">
@@ -8861,6 +9046,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="68" t="inlineStr">
@@ -9378,6 +9578,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="inlineStr">
@@ -9895,6 +10110,21 @@
           <t>B_N_Y</t>
         </is>
       </c>
+      <c r="DA13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>B_N_Y</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="inlineStr">
@@ -10412,6 +10642,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="inlineStr">
@@ -10929,6 +11174,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="inlineStr">
@@ -11446,6 +11706,21 @@
           <t>S</t>
         </is>
       </c>
+      <c r="DA16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="59" t="inlineStr">
@@ -11959,6 +12234,21 @@
         </is>
       </c>
       <c r="CZ17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DA17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -16168,10 +16458,10 @@
   <dimension ref="A1:AZ28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -16395,11 +16685,6 @@
           <t>RSI_L_Range</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Neative Average in Days</t>
-        </is>
-      </c>
       <c r="AU1" t="n">
         <v>300</v>
       </c>
@@ -16433,124 +16718,124 @@
         <v>14</v>
       </c>
       <c r="E2" s="99" t="n">
-        <v>48690.92</v>
+        <v>26433.05</v>
       </c>
       <c r="F2" s="99" t="n">
-        <v>147.55</v>
+        <v>264.33</v>
       </c>
       <c r="G2" s="99" t="n">
-        <v>15.35</v>
+        <v>45.42</v>
       </c>
       <c r="H2" s="99" t="n">
-        <v>6.4</v>
+        <v>8.99</v>
       </c>
       <c r="I2" s="99" t="n">
-        <v>41.69</v>
+        <v>19.79</v>
       </c>
       <c r="J2" s="99" t="n">
-        <v>-6434.21</v>
+        <v>-4315.64</v>
       </c>
       <c r="K2" s="99" t="n">
-        <v>-12.11</v>
+        <v>-19.78</v>
       </c>
       <c r="L2" s="99" t="n">
-        <v>-6641.99</v>
+        <v>-4518.31</v>
       </c>
       <c r="M2" s="99" t="n">
-        <v>-12.11</v>
+        <v>-20.71</v>
       </c>
       <c r="N2" s="99" t="n">
-        <v>7.33</v>
+        <v>5.85</v>
       </c>
       <c r="O2" s="99" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="P2" s="99" t="n">
-        <v>3.44</v>
+        <v>0.96</v>
       </c>
       <c r="Q2" s="99" t="n">
-        <v>399.78</v>
+        <v>102.05</v>
       </c>
       <c r="R2" s="99" t="n">
-        <v>74.95999999999999</v>
+        <v>25.51</v>
       </c>
       <c r="S2" s="99" t="n">
-        <v>6693.66</v>
+        <v>2844.17</v>
       </c>
       <c r="T2" s="99" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="U2" s="99" t="n">
-        <v>2.03</v>
+        <v>9.94</v>
       </c>
       <c r="V2" s="99" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="W2" s="99" t="n">
-        <v>1.28</v>
+        <v>0.6</v>
       </c>
       <c r="X2" s="99" t="n">
-        <v>0.0278</v>
+        <v>0.0246</v>
       </c>
       <c r="Y2" s="99" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="99" t="n">
-        <v>2562.68</v>
+        <v>5286.61</v>
       </c>
       <c r="AA2" s="99" t="n">
-        <v>7.57</v>
+        <v>34.66</v>
       </c>
       <c r="AB2" s="99" t="n">
-        <v>50.16</v>
+        <v>336.8</v>
       </c>
       <c r="AC2" s="99" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AD2" s="99" t="n">
-        <v>84.20999999999999</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="99" t="n">
-        <v>48813.02</v>
+        <v>26694.63</v>
       </c>
       <c r="AF2" s="99" t="n">
-        <v>3050.81</v>
+        <v>6673.66</v>
       </c>
       <c r="AG2" s="99" t="n">
-        <v>9.130000000000001</v>
+        <v>43.83</v>
       </c>
       <c r="AH2" s="99" t="n">
-        <v>58.94</v>
+        <v>415.25</v>
       </c>
       <c r="AI2" s="99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="99" t="n">
-        <v>15.79</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="99" t="n">
-        <v>-122.1</v>
+        <v>-261.58</v>
       </c>
       <c r="AL2" s="99" t="n">
-        <v>-40.7</v>
+        <v>-261.58</v>
       </c>
       <c r="AM2" s="99" t="n">
-        <v>-0.73</v>
+        <v>-2.01</v>
       </c>
       <c r="AN2" s="99" t="n">
-        <v>3.33</v>
+        <v>23</v>
       </c>
       <c r="AO2" s="99" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="99" t="n">
+        <v>140</v>
+      </c>
+      <c r="AQ2" s="99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="99" t="n">
         <v>25</v>
-      </c>
-      <c r="AP2" s="99" t="n">
-        <v>49</v>
-      </c>
-      <c r="AQ2" s="99" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR2" s="99" t="n">
-        <v>39</v>
       </c>
       <c r="AS2" s="99" t="n">
         <v>3</v>
@@ -16599,7 +16884,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>10962.32</v>
+        <v>6053</v>
       </c>
       <c r="F3" t="n">
         <v>33.22</v>
@@ -16659,7 +16944,7 @@
         <v>0.0655</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
         <v>1827.05</v>
@@ -16674,7 +16959,7 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="n">
         <v>11301.65</v>
@@ -16707,13 +16992,13 @@
         <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AP3" t="n">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="n">
         <v>80</v>
@@ -16928,7 +17213,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="99" t="n">
-        <v>61567.58</v>
+        <v>18370</v>
       </c>
       <c r="F5" s="99" t="n">
         <v>186.57</v>
@@ -16988,7 +17273,7 @@
         <v>0.0625</v>
       </c>
       <c r="Y5" s="99" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="99" t="n">
         <v>5130.63</v>
@@ -17003,7 +17288,7 @@
         <v>10</v>
       </c>
       <c r="AD5" s="99" t="n">
-        <v>83.33</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AE5" s="99" t="n">
         <v>67346.72</v>
@@ -17036,16 +17321,16 @@
         <v>15.5</v>
       </c>
       <c r="AO5" s="99" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AP5" s="99" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AQ5" s="99" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AR5" s="99" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS5" s="99" t="n">
         <v>23</v>
@@ -19302,7 +19587,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
